--- a/xlsx/航运_intext.xlsx
+++ b/xlsx/航运_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%AD%E5%A4%A7%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>京杭大運河</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_航运</t>
+    <t>京杭大运河</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_航运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E7%89%A9</t>
   </si>
   <si>
-    <t>貨物</t>
+    <t>货物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83%E8%88%B9</t>
   </si>
   <si>
-    <t>貨櫃船</t>
+    <t>货柜船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%89%E8%88%B9</t>
   </si>
   <si>
-    <t>躉船</t>
+    <t>趸船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%B5%81%E4%BD%9C%E6%A5%AD</t>
   </si>
   <si>
-    <t>中流作業</t>
+    <t>中流作业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8F%A3</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%B2%A8</t>
   </si>
   <si>
-    <t>雜貨</t>
+    <t>杂货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83</t>
   </si>
   <si>
-    <t>貨櫃</t>
+    <t>货柜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E8%B2%A8</t>
   </si>
   <si>
-    <t>乾貨</t>
+    <t>干货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%95%86%E6%A5%AD%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>國際商業用語</t>
+    <t>国际商业用语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E8%88%B6</t>

--- a/xlsx/航运_intext.xlsx
+++ b/xlsx/航运_intext.xlsx
@@ -29,7 +29,7 @@
     <t>京杭大運河</t>
   </si>
   <si>
-    <t>政策_政策_美國_航运</t>
+    <t>体育运动_体育运动_古埃及_航运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA</t>
